--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:N19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f>SUM(B$17:B17,D$17:D17)</f>
+        <f>K17</f>
         <v>0</v>
       </c>
       <c r="M17">
@@ -1278,7 +1278,7 @@
         <v>21.666666666666668</v>
       </c>
       <c r="L18" s="1">
-        <f>SUM(B$17:B18,D$17:D18)</f>
+        <f>L17+K18</f>
         <v>21.666666666666668</v>
       </c>
       <c r="M18">
@@ -1293,9 +1293,15 @@
       <c r="A19" s="3">
         <v>42705</v>
       </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="7"/>
@@ -1307,18 +1313,18 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="L19" s="1">
-        <f>SUM(B$17:B19,D$17:D19)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" ref="L19:L28" si="10">L18+K19</f>
+        <v>27.333333333333336</v>
       </c>
       <c r="M19">
         <v>1370</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10092.333333333334</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1342,8 +1348,8 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f>SUM(B$17:B20,D$17:D20)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M20">
         <v>1370</v>
@@ -1374,8 +1380,8 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f>SUM(B$17:B21,D$17:D21)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1406,8 +1412,8 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f>SUM(B$17:B22,D$17:D22)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1438,8 +1444,8 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f>SUM(B$17:B23,D$17:D23)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1470,8 +1476,8 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f>SUM(B$17:B24,D$17:D24)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1502,8 +1508,8 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f>SUM(B$17:B25,D$17:D25)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1534,8 +1540,8 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f>SUM(B$17:B26,D$17:D26)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1566,8 +1572,8 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f>SUM(B$17:B27,D$17:D27)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1598,8 +1604,8 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f>SUM(B$17:B28,D$17:D28)</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="10"/>
+        <v>27.333333333333336</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1618,7 +1624,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>38588.333333333336</v>
+        <v>48680.666666666672</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -1635,15 +1641,15 @@
         <v>43009</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:D42" si="10">C31/60</f>
+        <f t="shared" ref="D31:D42" si="11">C31/60</f>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ref="G31:G42" si="11">F31/60</f>
+        <f t="shared" ref="G31:G42" si="12">F31/60</f>
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ref="J31:J42" si="12">I31/60</f>
+        <f t="shared" ref="J31:J42" si="13">I31/60</f>
         <v>0</v>
       </c>
       <c r="K31" s="1">
@@ -1655,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31:N42" si="13">(D31+B31)*1704</f>
+        <f t="shared" ref="N31:N42" si="14">(D31+B31)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -1664,15 +1670,15 @@
         <v>43040</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K32" s="1">
@@ -1684,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1693,15 +1699,15 @@
         <v>43070</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K33" s="1">
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1722,15 +1728,15 @@
         <v>43101</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K34" s="1">
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1751,15 +1757,15 @@
         <v>43132</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K35" s="1">
@@ -1771,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1780,15 +1786,15 @@
         <v>43160</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K36" s="1">
@@ -1800,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1809,15 +1815,15 @@
         <v>43191</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K37" s="1">
@@ -1829,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1838,15 +1844,15 @@
         <v>43221</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1867,15 +1873,15 @@
         <v>43252</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K39" s="1">
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1896,15 +1902,15 @@
         <v>43282</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1925,15 +1931,15 @@
         <v>43313</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K41" s="1">
@@ -1945,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1954,15 +1960,15 @@
         <v>43344</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K42" s="1">
@@ -1974,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -1992,15 +1998,15 @@
         <v>43374</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ref="D44:D55" si="14">C44/60</f>
+        <f t="shared" ref="D44:D55" si="15">C44/60</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" ref="G44:G55" si="15">F44/60</f>
+        <f t="shared" ref="G44:G55" si="16">F44/60</f>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" ref="J44:J55" si="16">I44/60</f>
+        <f t="shared" ref="J44:J55" si="17">I44/60</f>
         <v>0</v>
       </c>
       <c r="K44" s="1">
@@ -2012,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" ref="N44:N55" si="17">(D44+B44)*1704</f>
+        <f t="shared" ref="N44:N55" si="18">(D44+B44)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -2021,15 +2027,15 @@
         <v>43405</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K45" s="1">
@@ -2041,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2050,15 +2056,15 @@
         <v>43435</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2079,15 +2085,15 @@
         <v>43466</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2108,15 +2114,15 @@
         <v>43497</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K48" s="1">
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2137,15 +2143,15 @@
         <v>43525</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K49" s="1">
@@ -2157,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2166,15 +2172,15 @@
         <v>43556</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K50" s="1">
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2195,15 +2201,15 @@
         <v>43586</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K51" s="1">
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2224,15 +2230,15 @@
         <v>43617</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K52" s="1">
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2253,15 +2259,15 @@
         <v>43647</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K53" s="1">
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2282,15 +2288,15 @@
         <v>43678</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K54" s="1">
@@ -2302,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2311,15 +2317,15 @@
         <v>43709</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K55" s="1">
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2349,19 +2355,19 @@
         <v>43739</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" ref="D57:D88" si="18">C57/60</f>
+        <f t="shared" ref="D57:D88" si="19">C57/60</f>
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" ref="G57:G120" si="19">F57/60</f>
+        <f t="shared" ref="G57:G120" si="20">F57/60</f>
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" ref="J57:J120" si="20">I57/60</f>
+        <f t="shared" ref="J57:J120" si="21">I57/60</f>
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ref="K57:K59" si="21">E57+G57</f>
+        <f t="shared" ref="K57:K59" si="22">E57+G57</f>
         <v>0</v>
       </c>
       <c r="L57" s="1">
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <f t="shared" ref="N57:N88" si="22">(D57+B57)*1704</f>
+        <f t="shared" ref="N57:N88" si="23">(D57+B57)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -2378,19 +2384,19 @@
         <v>43770</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L58" s="1">
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -2407,19 +2413,19 @@
         <v>43800</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
@@ -2427,21 +2433,21 @@
         <v>0</v>
       </c>
       <c r="N59" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K60" s="1"/>
@@ -2450,21 +2456,21 @@
         <v>0</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D61" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K61" s="1"/>
@@ -2473,21 +2479,21 @@
         <v>0</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D62" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K62" s="1"/>
@@ -2496,21 +2502,21 @@
         <v>0</v>
       </c>
       <c r="N62" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D63" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K63" s="1"/>
@@ -2519,21 +2525,21 @@
         <v>0</v>
       </c>
       <c r="N63" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D64" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K64" s="1"/>
@@ -2542,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="N64" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D65" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K65" s="1"/>
@@ -2565,21 +2571,21 @@
         <v>0</v>
       </c>
       <c r="N65" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D66" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K66" s="1"/>
@@ -2588,21 +2594,21 @@
         <v>0</v>
       </c>
       <c r="N66" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K67" s="1"/>
@@ -2611,21 +2617,21 @@
         <v>0</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K68" s="1"/>
@@ -2634,21 +2640,21 @@
         <v>0</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D69" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K69" s="1"/>
@@ -2657,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="N69" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D70" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K70" s="1"/>
@@ -2680,21 +2686,21 @@
         <v>0</v>
       </c>
       <c r="N70" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D71" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K71" s="1"/>
@@ -2703,21 +2709,21 @@
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D72" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K72" s="1"/>
@@ -2726,21 +2732,21 @@
         <v>0</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K73" s="1"/>
@@ -2749,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="N73" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D74" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K74" s="1"/>
@@ -2772,21 +2778,21 @@
         <v>0</v>
       </c>
       <c r="N74" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D75" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K75" s="1"/>
@@ -2795,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="N75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D76" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K76" s="1"/>
@@ -2818,21 +2824,21 @@
         <v>0</v>
       </c>
       <c r="N76" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K77" s="1"/>
@@ -2841,21 +2847,21 @@
         <v>0</v>
       </c>
       <c r="N77" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K78" s="1"/>
@@ -2864,21 +2870,21 @@
         <v>0</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D79" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K79" s="1"/>
@@ -2887,21 +2893,21 @@
         <v>0</v>
       </c>
       <c r="N79" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D80" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K80" s="1"/>
@@ -2910,21 +2916,21 @@
         <v>0</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K81" s="1"/>
@@ -2933,21 +2939,21 @@
         <v>0</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K82" s="1"/>
@@ -2956,21 +2962,21 @@
         <v>0</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K83" s="1"/>
@@ -2979,21 +2985,21 @@
         <v>0</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D84" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K84" s="1"/>
@@ -3002,21 +3008,21 @@
         <v>0</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D85" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K85" s="1"/>
@@ -3025,21 +3031,21 @@
         <v>0</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K86" s="1"/>
@@ -3048,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="N86" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K87" s="1"/>
@@ -3071,21 +3077,21 @@
         <v>0</v>
       </c>
       <c r="N87" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K88" s="1"/>
@@ -3094,21 +3100,21 @@
         <v>0</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D89" s="1">
-        <f t="shared" ref="D89:D120" si="23">C89/60</f>
+        <f t="shared" ref="D89:D120" si="24">C89/60</f>
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K89" s="1"/>
@@ -3117,21 +3123,21 @@
         <v>0</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" ref="N89:N120" si="24">(D89+B89)*1704</f>
+        <f t="shared" ref="N89:N120" si="25">(D89+B89)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K90" s="1"/>
@@ -3140,21 +3146,21 @@
         <v>0</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K91" s="1"/>
@@ -3163,21 +3169,21 @@
         <v>0</v>
       </c>
       <c r="N91" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D92" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K92" s="1"/>
@@ -3186,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="N92" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D93" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K93" s="1"/>
@@ -3209,21 +3215,21 @@
         <v>0</v>
       </c>
       <c r="N93" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D94" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K94" s="1"/>
@@ -3232,21 +3238,21 @@
         <v>0</v>
       </c>
       <c r="N94" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D95" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K95" s="1"/>
@@ -3255,21 +3261,21 @@
         <v>0</v>
       </c>
       <c r="N95" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D96" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J96" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K96" s="1"/>
@@ -3278,21 +3284,21 @@
         <v>0</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D97" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J97" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K97" s="1"/>
@@ -3301,21 +3307,21 @@
         <v>0</v>
       </c>
       <c r="N97" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D98" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J98" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K98" s="1"/>
@@ -3324,21 +3330,21 @@
         <v>0</v>
       </c>
       <c r="N98" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D99" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J99" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K99" s="1"/>
@@ -3347,21 +3353,21 @@
         <v>0</v>
       </c>
       <c r="N99" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D100" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K100" s="1"/>
@@ -3370,21 +3376,21 @@
         <v>0</v>
       </c>
       <c r="N100" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D101" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J101" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K101" s="1"/>
@@ -3393,21 +3399,21 @@
         <v>0</v>
       </c>
       <c r="N101" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D102" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J102" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K102" s="1"/>
@@ -3416,21 +3422,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D103" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K103" s="1"/>
@@ -3439,21 +3445,21 @@
         <v>0</v>
       </c>
       <c r="N103" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D104" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J104" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K104" s="1"/>
@@ -3462,21 +3468,21 @@
         <v>0</v>
       </c>
       <c r="N104" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D105" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K105" s="1"/>
@@ -3485,21 +3491,21 @@
         <v>0</v>
       </c>
       <c r="N105" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D106" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K106" s="1"/>
@@ -3508,21 +3514,21 @@
         <v>0</v>
       </c>
       <c r="N106" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D107" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J107" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K107" s="1"/>
@@ -3531,21 +3537,21 @@
         <v>0</v>
       </c>
       <c r="N107" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D108" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J108" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K108" s="1"/>
@@ -3554,21 +3560,21 @@
         <v>0</v>
       </c>
       <c r="N108" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D109" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J109" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K109" s="1"/>
@@ -3577,21 +3583,21 @@
         <v>0</v>
       </c>
       <c r="N109" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D110" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J110" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K110" s="1"/>
@@ -3600,21 +3606,21 @@
         <v>0</v>
       </c>
       <c r="N110" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D111" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J111" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K111" s="1"/>
@@ -3623,21 +3629,21 @@
         <v>0</v>
       </c>
       <c r="N111" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D112" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J112" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K112" s="1"/>
@@ -3646,21 +3652,21 @@
         <v>0</v>
       </c>
       <c r="N112" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D113" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J113" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K113" s="1"/>
@@ -3669,799 +3675,799 @@
         <v>0</v>
       </c>
       <c r="N113" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D114">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N114" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D115">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N115" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D116">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N116" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D117">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N117" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D118">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N118" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D119">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N119" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D120">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N120" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D121">
-        <f t="shared" ref="D121:D152" si="25">C121/60</f>
+        <f t="shared" ref="D121:D152" si="26">C121/60</f>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" ref="G121:G157" si="26">F121/60</f>
+        <f t="shared" ref="G121:G157" si="27">F121/60</f>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" ref="J121:J157" si="27">I121/60</f>
+        <f t="shared" ref="J121:J157" si="28">I121/60</f>
         <v>0</v>
       </c>
       <c r="N121" s="6">
-        <f t="shared" ref="N121:N133" si="28">(D121+B121)*1704</f>
+        <f t="shared" ref="N121:N133" si="29">(D121+B121)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D122">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N122" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D123">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N123" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D124">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N124" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D125">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N125" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D126">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N126" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D127">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N127" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D128">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N128" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D129">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N129" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D130">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J130">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N130" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J131">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N131" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N132" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N133" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" ref="N134:N157" si="29">(D134+B134)*1704</f>
+        <f t="shared" ref="N134:N157" si="30">(D134+B134)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J135">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N135" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N136" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J137">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N137" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N138" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N139" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N140" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N141" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N142" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N143" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N144" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N145" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N146" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N147" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N149" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N150" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N151" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N152" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D153">
-        <f t="shared" ref="D153:D157" si="30">C153/60</f>
+        <f t="shared" ref="D153:D157" si="31">C153/60</f>
         <v>0</v>
       </c>
       <c r="G153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N153" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D154">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N154" s="6">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D155">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N155" s="6">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D156">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N156" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N156" s="6">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D157">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N157" s="6">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,7 +1294,7 @@
         <v>42705</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>40</v>
@@ -1303,28 +1303,40 @@
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>5.666666666666667</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ref="L19:L28" si="10">L18+K19</f>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M19">
         <v>1370</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>10092.333333333334</v>
+        <v>15435.333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1349,7 +1361,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M20">
         <v>1370</v>
@@ -1381,7 +1393,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1413,7 +1425,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1445,7 +1457,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1477,7 +1489,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1509,7 +1521,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1541,7 +1553,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1573,7 +1585,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1605,7 +1617,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>27.333333333333336</v>
+        <v>30.333333333333336</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1624,7 +1636,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>48680.666666666672</v>
+        <v>54023.666666666672</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K55" si="3">B4+D4</f>
+        <f t="shared" ref="K4:K56" si="3">B4+D4</f>
         <v>29.95</v>
       </c>
       <c r="L4" s="1">
@@ -1294,14 +1294,14 @@
         <v>42705</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1325,18 +1325,18 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>8.6666666666666661</v>
+        <v>13.266666666666667</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ref="L19:L28" si="10">L18+K19</f>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M19">
         <v>1370</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>15435.333333333332</v>
+        <v>23627.933333333338</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M20">
         <v>1370</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>30.333333333333336</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1636,7 +1636,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>54023.666666666672</v>
+        <v>62216.266666666677</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -1672,8 +1672,11 @@
         <f>SUM(B$31:B31,D$31:D31)</f>
         <v>0</v>
       </c>
+      <c r="M31">
+        <v>1370</v>
+      </c>
       <c r="N31" s="6">
-        <f t="shared" ref="N31:N42" si="14">(D31+B31)*1704</f>
+        <f t="shared" ref="N31:N42" si="14">K31*M31*1.3+(E31+G31)*M31*0.25+(H31+J31)*M31*0.05</f>
         <v>0</v>
       </c>
     </row>
@@ -1701,6 +1704,9 @@
         <f>SUM(B$31:B32,D$31:D32)</f>
         <v>0</v>
       </c>
+      <c r="M32">
+        <v>1370</v>
+      </c>
       <c r="N32" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1730,6 +1736,9 @@
         <f>SUM(B$31:B33,D$31:D33)</f>
         <v>0</v>
       </c>
+      <c r="M33">
+        <v>1370</v>
+      </c>
       <c r="N33" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1759,6 +1768,9 @@
         <f>SUM(B$31:B34,D$31:D34)</f>
         <v>0</v>
       </c>
+      <c r="M34">
+        <v>1370</v>
+      </c>
       <c r="N34" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1788,6 +1800,9 @@
         <f>SUM(B$31:B35,D$31:D35)</f>
         <v>0</v>
       </c>
+      <c r="M35">
+        <v>1370</v>
+      </c>
       <c r="N35" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1817,6 +1832,9 @@
         <f>SUM(B$31:B36,D$31:D36)</f>
         <v>0</v>
       </c>
+      <c r="M36">
+        <v>1370</v>
+      </c>
       <c r="N36" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1846,6 +1864,9 @@
         <f>SUM(B$31:B37,D$31:D37)</f>
         <v>0</v>
       </c>
+      <c r="M37">
+        <v>1370</v>
+      </c>
       <c r="N37" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1875,6 +1896,9 @@
         <f>SUM(B$31:B38,D$31:D38)</f>
         <v>0</v>
       </c>
+      <c r="M38">
+        <v>1370</v>
+      </c>
       <c r="N38" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1904,6 +1928,9 @@
         <f>SUM(B$31:B39,D$31:D39)</f>
         <v>0</v>
       </c>
+      <c r="M39">
+        <v>1370</v>
+      </c>
       <c r="N39" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1933,6 +1960,9 @@
         <f>SUM(B$31:B40,D$31:D40)</f>
         <v>0</v>
       </c>
+      <c r="M40">
+        <v>1370</v>
+      </c>
       <c r="N40" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1962,6 +1992,9 @@
         <f>SUM(B$31:B41,D$31:D41)</f>
         <v>0</v>
       </c>
+      <c r="M41">
+        <v>1370</v>
+      </c>
       <c r="N41" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -1990,6 +2023,9 @@
       <c r="L42" s="1">
         <f>SUM(B$31:B42,D$31:D42)</f>
         <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1370</v>
       </c>
       <c r="N42" s="6">
         <f t="shared" si="14"/>
@@ -2003,51 +2039,34 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="N43" s="6"/>
+      <c r="N43" s="6">
+        <f>SUM(N31:N42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>43374</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" ref="D44:D55" si="15">C44/60</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" ref="G44:G55" si="16">F44/60</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <f t="shared" ref="J44:J55" si="17">I44/60</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <f>SUM(B$44:B44,D$44:D44)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" ref="N44:N55" si="18">(D44+B44)*1704</f>
-        <v>0</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D45:D56" si="15">C45/60</f>
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G45:G56" si="16">F45/60</f>
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J45:J56" si="17">I45/60</f>
         <v>0</v>
       </c>
       <c r="K45" s="1">
@@ -2055,17 +2074,17 @@
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f>SUM(B$44:B45,D$44:D45)</f>
+        <f>SUM(B$45:B45,D$45:D45)</f>
         <v>0</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="N45:N56" si="18">(D45+B45)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="15"/>
@@ -2084,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <f>SUM(B$44:B46,D$44:D46)</f>
+        <f>SUM(B$45:B46,D$45:D46)</f>
         <v>0</v>
       </c>
       <c r="N46" s="6">
@@ -2094,7 +2113,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="15"/>
@@ -2113,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f>SUM(B$44:B47,D$44:D47)</f>
+        <f>SUM(B$45:B47,D$45:D47)</f>
         <v>0</v>
       </c>
       <c r="N47" s="6">
@@ -2123,7 +2142,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="15"/>
@@ -2142,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f>SUM(B$44:B48,D$44:D48)</f>
+        <f>SUM(B$45:B48,D$45:D48)</f>
         <v>0</v>
       </c>
       <c r="N48" s="6">
@@ -2152,7 +2171,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="15"/>
@@ -2171,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f>SUM(B$44:B49,D$44:D49)</f>
+        <f>SUM(B$45:B49,D$45:D49)</f>
         <v>0</v>
       </c>
       <c r="N49" s="6">
@@ -2181,7 +2200,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="15"/>
@@ -2200,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f>SUM(B$44:B50,D$44:D50)</f>
+        <f>SUM(B$45:B50,D$45:D50)</f>
         <v>0</v>
       </c>
       <c r="N50" s="6">
@@ -2210,7 +2229,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="15"/>
@@ -2229,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f>SUM(B$44:B51,D$44:D51)</f>
+        <f>SUM(B$45:B51,D$45:D51)</f>
         <v>0</v>
       </c>
       <c r="N51" s="6">
@@ -2239,7 +2258,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="15"/>
@@ -2258,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f>SUM(B$44:B52,D$44:D52)</f>
+        <f>SUM(B$45:B52,D$45:D52)</f>
         <v>0</v>
       </c>
       <c r="N52" s="6">
@@ -2268,7 +2287,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="15"/>
@@ -2287,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <f>SUM(B$44:B53,D$44:D53)</f>
+        <f>SUM(B$45:B53,D$45:D53)</f>
         <v>0</v>
       </c>
       <c r="N53" s="6">
@@ -2297,7 +2316,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="15"/>
@@ -2316,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f>SUM(B$44:B54,D$44:D54)</f>
+        <f>SUM(B$45:B54,D$45:D54)</f>
         <v>0</v>
       </c>
       <c r="N54" s="6">
@@ -2326,7 +2345,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="15"/>
@@ -2345,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <f>SUM(B$44:B55,D$44:D55)</f>
+        <f>SUM(B$45:B55,D$45:D55)</f>
         <v>0</v>
       </c>
       <c r="N55" s="6">
@@ -2354,75 +2373,75 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
-      <c r="D56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="N56" s="6"/>
+      <c r="A56" s="3">
+        <v>43709</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f>SUM(B$45:B56,D$45:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
-        <v>43739</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" ref="D57:D88" si="19">C57/60</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" ref="G57:G120" si="20">F57/60</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <f t="shared" ref="J57:J120" si="21">I57/60</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" ref="K57:K59" si="22">E57+G57</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <f>SUM(B$57:B57,D$57:D57)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="6">
-        <f t="shared" ref="N57:N88" si="23">(D57+B57)*1704</f>
-        <v>0</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D58:D89" si="19">C58/60</f>
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G58:G121" si="20">F58/60</f>
         <v>0</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J58:J121" si="21">I58/60</f>
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="K58:K60" si="22">E58+G58</f>
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f>SUM(B$57:B58,D$57:D58)</f>
+        <f>SUM(B$58:B58,D$58:D58)</f>
         <v>0</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="N58:N89" si="23">(D58+B58)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="19"/>
@@ -2441,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f>SUM(B$57:B59,D$57:D59)</f>
+        <f>SUM(B$58:B59,D$58:D59)</f>
         <v>0</v>
       </c>
       <c r="N59" s="6">
@@ -2450,6 +2469,9 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>43800</v>
+      </c>
       <c r="D60" s="1">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2462,9 +2484,12 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="L60" s="1">
-        <f>SUM(B$57:B60,D$57:D60)</f>
+        <f>SUM(B$58:B60,D$58:D60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="6">
@@ -2487,7 +2512,7 @@
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1">
-        <f>SUM(B$57:B61,D$57:D61)</f>
+        <f>SUM(B$58:B61,D$58:D61)</f>
         <v>0</v>
       </c>
       <c r="N61" s="6">
@@ -2510,7 +2535,7 @@
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1">
-        <f>SUM(B$57:B62,D$57:D62)</f>
+        <f>SUM(B$58:B62,D$58:D62)</f>
         <v>0</v>
       </c>
       <c r="N62" s="6">
@@ -2533,7 +2558,7 @@
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1">
-        <f>SUM(B$57:B63,D$57:D63)</f>
+        <f>SUM(B$58:B63,D$58:D63)</f>
         <v>0</v>
       </c>
       <c r="N63" s="6">
@@ -2556,7 +2581,7 @@
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1">
-        <f>SUM(B$57:B64,D$57:D64)</f>
+        <f>SUM(B$58:B64,D$58:D64)</f>
         <v>0</v>
       </c>
       <c r="N64" s="6">
@@ -2579,7 +2604,7 @@
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1">
-        <f>SUM(B$57:B65,D$57:D65)</f>
+        <f>SUM(B$58:B65,D$58:D65)</f>
         <v>0</v>
       </c>
       <c r="N65" s="6">
@@ -2602,7 +2627,7 @@
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1">
-        <f>SUM(B$57:B66,D$57:D66)</f>
+        <f>SUM(B$58:B66,D$58:D66)</f>
         <v>0</v>
       </c>
       <c r="N66" s="6">
@@ -2625,7 +2650,7 @@
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1">
-        <f>SUM(B$57:B67,D$57:D67)</f>
+        <f>SUM(B$58:B67,D$58:D67)</f>
         <v>0</v>
       </c>
       <c r="N67" s="6">
@@ -2648,7 +2673,7 @@
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1">
-        <f>SUM(B$57:B68,D$57:D68)</f>
+        <f>SUM(B$58:B68,D$58:D68)</f>
         <v>0</v>
       </c>
       <c r="N68" s="6">
@@ -2671,7 +2696,7 @@
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1">
-        <f>SUM(B$57:B69,D$57:D69)</f>
+        <f>SUM(B$58:B69,D$58:D69)</f>
         <v>0</v>
       </c>
       <c r="N69" s="6">
@@ -2694,7 +2719,7 @@
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1">
-        <f>SUM(B$57:B70,D$57:D70)</f>
+        <f>SUM(B$58:B70,D$58:D70)</f>
         <v>0</v>
       </c>
       <c r="N70" s="6">
@@ -2717,7 +2742,7 @@
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1">
-        <f>SUM(B$57:B71,D$57:D71)</f>
+        <f>SUM(B$58:B71,D$58:D71)</f>
         <v>0</v>
       </c>
       <c r="N71" s="6">
@@ -2740,7 +2765,7 @@
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1">
-        <f>SUM(B$57:B72,D$57:D72)</f>
+        <f>SUM(B$58:B72,D$58:D72)</f>
         <v>0</v>
       </c>
       <c r="N72" s="6">
@@ -2763,7 +2788,7 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1">
-        <f>SUM(B$57:B73,D$57:D73)</f>
+        <f>SUM(B$58:B73,D$58:D73)</f>
         <v>0</v>
       </c>
       <c r="N73" s="6">
@@ -2786,7 +2811,7 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1">
-        <f>SUM(B$57:B74,D$57:D74)</f>
+        <f>SUM(B$58:B74,D$58:D74)</f>
         <v>0</v>
       </c>
       <c r="N74" s="6">
@@ -2809,7 +2834,7 @@
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1">
-        <f>SUM(B$57:B75,D$57:D75)</f>
+        <f>SUM(B$58:B75,D$58:D75)</f>
         <v>0</v>
       </c>
       <c r="N75" s="6">
@@ -2832,7 +2857,7 @@
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1">
-        <f>SUM(B$57:B76,D$57:D76)</f>
+        <f>SUM(B$58:B76,D$58:D76)</f>
         <v>0</v>
       </c>
       <c r="N76" s="6">
@@ -2855,7 +2880,7 @@
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1">
-        <f>SUM(B$57:B77,D$57:D77)</f>
+        <f>SUM(B$58:B77,D$58:D77)</f>
         <v>0</v>
       </c>
       <c r="N77" s="6">
@@ -2878,7 +2903,7 @@
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1">
-        <f>SUM(B$57:B78,D$57:D78)</f>
+        <f>SUM(B$58:B78,D$58:D78)</f>
         <v>0</v>
       </c>
       <c r="N78" s="6">
@@ -2901,7 +2926,7 @@
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1">
-        <f>SUM(B$57:B79,D$57:D79)</f>
+        <f>SUM(B$58:B79,D$58:D79)</f>
         <v>0</v>
       </c>
       <c r="N79" s="6">
@@ -2924,7 +2949,7 @@
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1">
-        <f>SUM(B$57:B80,D$57:D80)</f>
+        <f>SUM(B$58:B80,D$58:D80)</f>
         <v>0</v>
       </c>
       <c r="N80" s="6">
@@ -2947,7 +2972,7 @@
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1">
-        <f>SUM(B$57:B81,D$57:D81)</f>
+        <f>SUM(B$58:B81,D$58:D81)</f>
         <v>0</v>
       </c>
       <c r="N81" s="6">
@@ -2970,7 +2995,7 @@
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1">
-        <f>SUM(B$57:B82,D$57:D82)</f>
+        <f>SUM(B$58:B82,D$58:D82)</f>
         <v>0</v>
       </c>
       <c r="N82" s="6">
@@ -2993,7 +3018,7 @@
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1">
-        <f>SUM(B$57:B83,D$57:D83)</f>
+        <f>SUM(B$58:B83,D$58:D83)</f>
         <v>0</v>
       </c>
       <c r="N83" s="6">
@@ -3016,7 +3041,7 @@
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1">
-        <f>SUM(B$57:B84,D$57:D84)</f>
+        <f>SUM(B$58:B84,D$58:D84)</f>
         <v>0</v>
       </c>
       <c r="N84" s="6">
@@ -3039,7 +3064,7 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1">
-        <f>SUM(B$57:B85,D$57:D85)</f>
+        <f>SUM(B$58:B85,D$58:D85)</f>
         <v>0</v>
       </c>
       <c r="N85" s="6">
@@ -3062,7 +3087,7 @@
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1">
-        <f>SUM(B$57:B86,D$57:D86)</f>
+        <f>SUM(B$58:B86,D$58:D86)</f>
         <v>0</v>
       </c>
       <c r="N86" s="6">
@@ -3085,7 +3110,7 @@
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1">
-        <f>SUM(B$57:B87,D$57:D87)</f>
+        <f>SUM(B$58:B87,D$58:D87)</f>
         <v>0</v>
       </c>
       <c r="N87" s="6">
@@ -3108,7 +3133,7 @@
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1">
-        <f>SUM(B$57:B88,D$57:D88)</f>
+        <f>SUM(B$58:B88,D$58:D88)</f>
         <v>0</v>
       </c>
       <c r="N88" s="6">
@@ -3118,7 +3143,7 @@
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D89" s="1">
-        <f t="shared" ref="D89:D120" si="24">C89/60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G89" s="1">
@@ -3131,17 +3156,17 @@
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1">
-        <f>SUM(B$57:B89,D$57:D89)</f>
+        <f>SUM(B$58:B89,D$58:D89)</f>
         <v>0</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" ref="N89:N120" si="25">(D89+B89)*1704</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D90" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="D90:D121" si="24">C90/60</f>
         <v>0</v>
       </c>
       <c r="G90" s="1">
@@ -3154,11 +3179,11 @@
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1">
-        <f>SUM(B$57:B90,D$57:D90)</f>
+        <f>SUM(B$58:B90,D$58:D90)</f>
         <v>0</v>
       </c>
       <c r="N90" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="N90:N121" si="25">(D90+B90)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -3177,7 +3202,7 @@
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1">
-        <f>SUM(B$57:B91,D$57:D91)</f>
+        <f>SUM(B$58:B91,D$58:D91)</f>
         <v>0</v>
       </c>
       <c r="N91" s="6">
@@ -3200,7 +3225,7 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1">
-        <f>SUM(B$57:B92,D$57:D92)</f>
+        <f>SUM(B$58:B92,D$58:D92)</f>
         <v>0</v>
       </c>
       <c r="N92" s="6">
@@ -3223,7 +3248,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1">
-        <f>SUM(B$57:B93,D$57:D93)</f>
+        <f>SUM(B$58:B93,D$58:D93)</f>
         <v>0</v>
       </c>
       <c r="N93" s="6">
@@ -3246,7 +3271,7 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1">
-        <f>SUM(B$57:B94,D$57:D94)</f>
+        <f>SUM(B$58:B94,D$58:D94)</f>
         <v>0</v>
       </c>
       <c r="N94" s="6">
@@ -3269,7 +3294,7 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1">
-        <f>SUM(B$57:B95,D$57:D95)</f>
+        <f>SUM(B$58:B95,D$58:D95)</f>
         <v>0</v>
       </c>
       <c r="N95" s="6">
@@ -3292,7 +3317,7 @@
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1">
-        <f>SUM(B$57:B96,D$57:D96)</f>
+        <f>SUM(B$58:B96,D$58:D96)</f>
         <v>0</v>
       </c>
       <c r="N96" s="6">
@@ -3315,7 +3340,7 @@
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1">
-        <f>SUM(B$57:B97,D$57:D97)</f>
+        <f>SUM(B$58:B97,D$58:D97)</f>
         <v>0</v>
       </c>
       <c r="N97" s="6">
@@ -3338,7 +3363,7 @@
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1">
-        <f>SUM(B$57:B98,D$57:D98)</f>
+        <f>SUM(B$58:B98,D$58:D98)</f>
         <v>0</v>
       </c>
       <c r="N98" s="6">
@@ -3361,7 +3386,7 @@
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1">
-        <f>SUM(B$57:B99,D$57:D99)</f>
+        <f>SUM(B$58:B99,D$58:D99)</f>
         <v>0</v>
       </c>
       <c r="N99" s="6">
@@ -3384,7 +3409,7 @@
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1">
-        <f>SUM(B$57:B100,D$57:D100)</f>
+        <f>SUM(B$58:B100,D$58:D100)</f>
         <v>0</v>
       </c>
       <c r="N100" s="6">
@@ -3407,7 +3432,7 @@
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1">
-        <f>SUM(B$57:B101,D$57:D101)</f>
+        <f>SUM(B$58:B101,D$58:D101)</f>
         <v>0</v>
       </c>
       <c r="N101" s="6">
@@ -3430,7 +3455,7 @@
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1">
-        <f>SUM(B$57:B102,D$57:D102)</f>
+        <f>SUM(B$58:B102,D$58:D102)</f>
         <v>0</v>
       </c>
       <c r="N102" s="6">
@@ -3453,7 +3478,7 @@
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1">
-        <f>SUM(B$57:B103,D$57:D103)</f>
+        <f>SUM(B$58:B103,D$58:D103)</f>
         <v>0</v>
       </c>
       <c r="N103" s="6">
@@ -3476,7 +3501,7 @@
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1">
-        <f>SUM(B$57:B104,D$57:D104)</f>
+        <f>SUM(B$58:B104,D$58:D104)</f>
         <v>0</v>
       </c>
       <c r="N104" s="6">
@@ -3499,7 +3524,7 @@
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1">
-        <f>SUM(B$57:B105,D$57:D105)</f>
+        <f>SUM(B$58:B105,D$58:D105)</f>
         <v>0</v>
       </c>
       <c r="N105" s="6">
@@ -3522,7 +3547,7 @@
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1">
-        <f>SUM(B$57:B106,D$57:D106)</f>
+        <f>SUM(B$58:B106,D$58:D106)</f>
         <v>0</v>
       </c>
       <c r="N106" s="6">
@@ -3545,7 +3570,7 @@
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1">
-        <f>SUM(B$57:B107,D$57:D107)</f>
+        <f>SUM(B$58:B107,D$58:D107)</f>
         <v>0</v>
       </c>
       <c r="N107" s="6">
@@ -3568,7 +3593,7 @@
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1">
-        <f>SUM(B$57:B108,D$57:D108)</f>
+        <f>SUM(B$58:B108,D$58:D108)</f>
         <v>0</v>
       </c>
       <c r="N108" s="6">
@@ -3591,7 +3616,7 @@
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1">
-        <f>SUM(B$57:B109,D$57:D109)</f>
+        <f>SUM(B$58:B109,D$58:D109)</f>
         <v>0</v>
       </c>
       <c r="N109" s="6">
@@ -3614,7 +3639,7 @@
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1">
-        <f>SUM(B$57:B110,D$57:D110)</f>
+        <f>SUM(B$58:B110,D$58:D110)</f>
         <v>0</v>
       </c>
       <c r="N110" s="6">
@@ -3637,7 +3662,7 @@
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1">
-        <f>SUM(B$57:B111,D$57:D111)</f>
+        <f>SUM(B$58:B111,D$58:D111)</f>
         <v>0</v>
       </c>
       <c r="N111" s="6">
@@ -3660,7 +3685,7 @@
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1">
-        <f>SUM(B$57:B112,D$57:D112)</f>
+        <f>SUM(B$58:B112,D$58:D112)</f>
         <v>0</v>
       </c>
       <c r="N112" s="6">
@@ -3683,7 +3708,7 @@
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1">
-        <f>SUM(B$57:B113,D$57:D113)</f>
+        <f>SUM(B$58:B113,D$58:D113)</f>
         <v>0</v>
       </c>
       <c r="N113" s="6">
@@ -3692,16 +3717,21 @@
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D114">
+      <c r="D114" s="1">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="G114">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="21"/>
+      <c r="G114" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1">
+        <f>SUM(B$58:B114,D$58:D114)</f>
         <v>0</v>
       </c>
       <c r="N114" s="6">
@@ -3819,37 +3849,37 @@
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D121">
-        <f t="shared" ref="D121:D152" si="26">C121/60</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" ref="G121:G157" si="27">F121/60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" ref="J121:J157" si="28">I121/60</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N121" s="6">
-        <f t="shared" ref="N121:N133" si="29">(D121+B121)*1704</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D122">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="D122:D153" si="26">C122/60</f>
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G122:G158" si="27">F122/60</f>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="J122:J158" si="28">I122/60</f>
         <v>0</v>
       </c>
       <c r="N122" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="N122:N134" si="29">(D122+B122)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -4065,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" ref="N134:N157" si="30">(D134+B134)*1704</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4083,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="N135:N158" si="30">(D135+B135)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -4395,7 +4425,7 @@
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D153">
-        <f t="shared" ref="D153:D157" si="31">C153/60</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G153">
@@ -4413,7 +4443,7 @@
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D154">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="D154:D158" si="31">C154/60</f>
         <v>0</v>
       </c>
       <c r="G154">
@@ -4479,6 +4509,24 @@
         <v>0</v>
       </c>
       <c r="N157" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D158">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="6">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,14 +1294,14 @@
         <v>42705</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>0.26666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1325,18 +1325,18 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>13.266666666666667</v>
+        <v>14.8</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ref="L19:L28" si="10">L18+K19</f>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M19">
         <v>1370</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>23627.933333333338</v>
+        <v>26358.799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M20">
         <v>1370</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>34.933333333333337</v>
+        <v>36.466666666666669</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1636,7 +1636,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>62216.266666666677</v>
+        <v>64947.133333333331</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,14 +1294,14 @@
         <v>42705</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1325,18 +1325,18 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>14.8</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ref="L19:L28" si="10">L18+K19</f>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M19">
         <v>1370</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>26358.799999999999</v>
+        <v>30009.850000000006</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M20">
         <v>1370</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>36.466666666666669</v>
+        <v>38.516666666666666</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1636,7 +1636,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>64947.133333333331</v>
+        <v>68598.183333333349</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,24 +1294,24 @@
         <v>42705</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="6"/>
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1325,18 +1325,18 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>16.850000000000001</v>
+        <v>29.4</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ref="L19:L28" si="10">L18+K19</f>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M19">
         <v>1370</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>30009.850000000006</v>
+        <v>52629.691666666666</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M20">
         <v>1370</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>38.516666666666666</v>
+        <v>51.066666666666663</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1636,7 +1636,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>68598.183333333349</v>
+        <v>91218.024999999994</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,32 +1343,50 @@
       <c r="A20" s="3">
         <v>42736</v>
       </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>47</v>
+      </c>
       <c r="D20" s="1">
         <f t="shared" si="6"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13.783333333333333</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M20">
         <v>1370</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24548.116666666669</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -1393,7 +1411,7 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M21">
         <v>1370</v>
@@ -1425,7 +1443,7 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M22">
         <v>1370</v>
@@ -1457,7 +1475,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M23">
         <v>1370</v>
@@ -1489,7 +1507,7 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M24">
         <v>1370</v>
@@ -1521,7 +1539,7 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M25">
         <v>1370</v>
@@ -1553,7 +1571,7 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M26">
         <v>1370</v>
@@ -1585,7 +1603,7 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M27">
         <v>1370</v>
@@ -1617,7 +1635,7 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>51.066666666666663</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="M28">
         <v>1370</v>
@@ -1636,7 +1654,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>91218.024999999994</v>
+        <v>115766.14166666666</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">

--- a/nswt/overtime.xlsx
+++ b/nswt/overtime.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="195" windowWidth="28035" windowHeight="12030"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="28035" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="加班表" sheetId="1" r:id="rId1"/>
+    <sheet name="预算表" sheetId="2" r:id="rId2"/>
+    <sheet name="预算初期表" sheetId="5" r:id="rId3"/>
+    <sheet name="分期消化表" sheetId="3" r:id="rId4"/>
+    <sheet name="实际固定开支表" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
@@ -108,6 +110,281 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>开始月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>结束月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分期I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分期II</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不動産取得税</t>
+    <rPh sb="0" eb="3">
+      <t>フドウサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定开支</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>分期消化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分段统计</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>统计I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>买断</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>实际固定开支</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业费</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煤气费</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>电话费AU1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>电话费AU2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>电话费AU3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>电话费SB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>网费1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>网费2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资产税</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>预算额</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>预</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算初期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>预算初期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>房屋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>实际开支</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>收支平衡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全确认</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>预算日均开支</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定税</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余额判断日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余额日均开支</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +395,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +417,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -168,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +485,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,21 +833,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
@@ -753,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f>B6+D6</f>
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -779,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>C7/60</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E7">
@@ -803,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f>B7+D7</f>
         <v>21.083333333333332</v>
       </c>
       <c r="L7" s="1">
@@ -829,7 +1152,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f>C8/60</f>
         <v>0.6166666666666667</v>
       </c>
       <c r="E8">
@@ -853,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f>B8+D8</f>
         <v>15.616666666666667</v>
       </c>
       <c r="L8" s="1">
@@ -1332,11 +1655,11 @@
         <v>51.066666666666663</v>
       </c>
       <c r="M19">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
-        <v>52629.691666666666</v>
+        <v>53858.998333333329</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -1344,24 +1667,24 @@
         <v>42736</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="6"/>
-        <v>0.78333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1375,30 +1698,48 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>13.783333333333333</v>
+        <v>27.866666666666667</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>78.933333333333337</v>
       </c>
       <c r="M20">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="9"/>
-        <v>24548.116666666669</v>
+        <v>51262.96166666667</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>42767</v>
       </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>44</v>
+      </c>
       <c r="D21" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="7"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="1">
@@ -1407,18 +1748,18 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10.733333333333333</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <f>L20+K21</f>
+        <v>89.666666666666671</v>
       </c>
       <c r="M21">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20170.106666666663</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -1443,10 +1784,10 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M22">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N22" s="6">
         <f t="shared" si="9"/>
@@ -1475,10 +1816,10 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M23">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" si="9"/>
@@ -1507,10 +1848,10 @@
       </c>
       <c r="L24" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M24">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N24" s="6">
         <f t="shared" si="9"/>
@@ -1539,10 +1880,10 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M25">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="9"/>
@@ -1571,10 +1912,10 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M26">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="9"/>
@@ -1603,10 +1944,10 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M27">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="9"/>
@@ -1635,10 +1976,10 @@
       </c>
       <c r="L28" s="1">
         <f t="shared" si="10"/>
-        <v>64.849999999999994</v>
+        <v>89.666666666666671</v>
       </c>
       <c r="M28">
-        <v>1370</v>
+        <v>1402</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="9"/>
@@ -1654,7 +1995,7 @@
       <c r="L29" s="1"/>
       <c r="N29" s="6">
         <f>SUM(N17:N28)</f>
-        <v>115766.14166666666</v>
+        <v>163880.4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -4563,26 +4904,2205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>42767</v>
+      </c>
+      <c r="B2" s="10">
+        <f>SUM(I2:M2)</f>
+        <v>216540</v>
+      </c>
+      <c r="C2" s="10">
+        <v>114607</v>
+      </c>
+      <c r="D2" s="10">
+        <f>B2-C2</f>
+        <v>101933</v>
+      </c>
+      <c r="E2" s="13" t="str">
+        <f t="shared" ref="E2:E25" si="0">IF((I2=0),"无收入",IF((D2&gt;0),"安全","危险"))</f>
+        <v>安全</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10">
+        <f>IF(I2&gt;0,ROUNDDOWN((I2+J2)/DAY(EOMONTH(A2,0)),-2),"无收入")</f>
+        <v>4400</v>
+      </c>
+      <c r="H2" s="17" t="str">
+        <f>IF(I2&gt;0,IF(F2="","",ROUNDDOWN(D2/(DAY(EOMONTH(A2,0))-DAY(F2)+1),-2)),"无收入")</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>预算初期表!B2</f>
+        <v>169000</v>
+      </c>
+      <c r="J2">
+        <v>-45000</v>
+      </c>
+      <c r="K2">
+        <f>分期消化表!B10</f>
+        <v>78000</v>
+      </c>
+      <c r="L2">
+        <f>实际固定开支表!B2</f>
+        <v>14540</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>42795</v>
+      </c>
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:B25" si="1">SUM(I3:M3)</f>
+        <v>-52800</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D25" si="2">B3-C3</f>
+        <v>-52800</v>
+      </c>
+      <c r="E3" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="17" t="str">
+        <f t="shared" ref="G3:G25" si="3">IF(I3&gt;0,ROUNDDOWN((I3+J3)/DAY(EOMONTH(A3,0)),-2),"无收入")</f>
+        <v>无收入</v>
+      </c>
+      <c r="H3" s="17" t="str">
+        <f t="shared" ref="H3:H25" si="4">IF(I3&gt;0,IF(F3="","",ROUNDDOWN(D3/(DAY(EOMONTH(A3,0))-DAY(F3)+1),-2)),"无收入")</f>
+        <v>无收入</v>
+      </c>
+      <c r="I3">
+        <f>预算初期表!B3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-45000</v>
+      </c>
+      <c r="K3">
+        <f>分期消化表!B11</f>
+        <v>-7800</v>
+      </c>
+      <c r="L3">
+        <f>实际固定开支表!B3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>42826</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H4" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I4">
+        <f>预算初期表!B4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-45000</v>
+      </c>
+      <c r="K4">
+        <f>分期消化表!B12</f>
+        <v>-7800</v>
+      </c>
+      <c r="L4">
+        <f>实际固定开支表!B4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>42856</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H5" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I5">
+        <f>预算初期表!B5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-45000</v>
+      </c>
+      <c r="K5">
+        <f>分期消化表!B13</f>
+        <v>-7800</v>
+      </c>
+      <c r="L5">
+        <f>实际固定开支表!B5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>42887</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H6" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I6">
+        <f>预算初期表!B6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-45000</v>
+      </c>
+      <c r="K6">
+        <f>分期消化表!B14</f>
+        <v>-7800</v>
+      </c>
+      <c r="L6">
+        <f>实际固定开支表!B6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>42917</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E7" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H7" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I7">
+        <f>预算初期表!B7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-45000</v>
+      </c>
+      <c r="K7">
+        <f>分期消化表!B15</f>
+        <v>-7800</v>
+      </c>
+      <c r="L7">
+        <f>实际固定开支表!B7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>42948</v>
+      </c>
+      <c r="B8" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H8" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I8">
+        <f>预算初期表!B8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-45000</v>
+      </c>
+      <c r="K8">
+        <f>分期消化表!B16</f>
+        <v>-7800</v>
+      </c>
+      <c r="L8">
+        <f>实际固定开支表!B8</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>42979</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H9" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I9">
+        <f>预算初期表!B9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-45000</v>
+      </c>
+      <c r="K9">
+        <f>分期消化表!B17</f>
+        <v>-7800</v>
+      </c>
+      <c r="L9">
+        <f>实际固定开支表!B9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>43009</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E10" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H10" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I10">
+        <f>预算初期表!B10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-45000</v>
+      </c>
+      <c r="K10">
+        <f>分期消化表!B18</f>
+        <v>-7800</v>
+      </c>
+      <c r="L10">
+        <f>实际固定开支表!B10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>43040</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H11" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I11">
+        <f>预算初期表!B11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>-45000</v>
+      </c>
+      <c r="K11">
+        <f>分期消化表!B19</f>
+        <v>-7800</v>
+      </c>
+      <c r="L11">
+        <f>实际固定开支表!B11</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>43070</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="1"/>
+        <v>-52800</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="2"/>
+        <v>-52800</v>
+      </c>
+      <c r="E12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H12" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I12">
+        <f>预算初期表!B12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>-45000</v>
+      </c>
+      <c r="K12">
+        <f>分期消化表!B20</f>
+        <v>-7800</v>
+      </c>
+      <c r="L12">
+        <f>实际固定开支表!B12</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H13" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I13">
+        <f>预算初期表!B13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>-45000</v>
+      </c>
+      <c r="K13">
+        <f>分期消化表!B21</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>实际固定开支表!B13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>43132</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H14" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I14">
+        <f>预算初期表!B14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>-45000</v>
+      </c>
+      <c r="K14">
+        <f>分期消化表!B22</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>实际固定开支表!B14</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>43160</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H15" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I15">
+        <f>预算初期表!B15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-45000</v>
+      </c>
+      <c r="K15">
+        <f>分期消化表!B23</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>实际固定开支表!B15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>43191</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H16" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I16">
+        <f>预算初期表!B16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>-45000</v>
+      </c>
+      <c r="K16">
+        <f>分期消化表!B24</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>实际固定开支表!B16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H17" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I17">
+        <f>预算初期表!B17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-45000</v>
+      </c>
+      <c r="K17">
+        <f>分期消化表!B25</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>实际固定开支表!B17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>43252</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H18" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I18">
+        <f>预算初期表!B18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>-45000</v>
+      </c>
+      <c r="K18">
+        <f>分期消化表!B26</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>实际固定开支表!B18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>43282</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H19" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I19">
+        <f>预算初期表!B19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>-45000</v>
+      </c>
+      <c r="K19">
+        <f>分期消化表!B27</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>实际固定开支表!B19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>43313</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E20" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H20" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I20">
+        <f>预算初期表!B20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-45000</v>
+      </c>
+      <c r="K20">
+        <f>分期消化表!B28</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>实际固定开支表!B20</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>43344</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I21">
+        <f>预算初期表!B21</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>-45000</v>
+      </c>
+      <c r="K21">
+        <f>分期消化表!B29</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>实际固定开支表!B21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>43374</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H22" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I22">
+        <f>预算初期表!B22</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>-45000</v>
+      </c>
+      <c r="K22">
+        <f>分期消化表!B30</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>实际固定开支表!B22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>43405</v>
+      </c>
+      <c r="B23" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H23" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I23">
+        <f>预算初期表!B23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>-45000</v>
+      </c>
+      <c r="K23">
+        <f>分期消化表!B31</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>实际固定开支表!B23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>43435</v>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H24" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I24">
+        <f>预算初期表!B24</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>-45000</v>
+      </c>
+      <c r="K24">
+        <f>分期消化表!B32</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>实际固定开支表!B24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>43466</v>
+      </c>
+      <c r="B25" s="10">
+        <f t="shared" si="1"/>
+        <v>-45000</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="2"/>
+        <v>-45000</v>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>无收入</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>无收入</v>
+      </c>
+      <c r="H25" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>无收入</v>
+      </c>
+      <c r="I25">
+        <f>预算初期表!B25</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>-45000</v>
+      </c>
+      <c r="K25">
+        <f>分期消化表!B33</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>实际固定开支表!B25</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <f>预算表!A2</f>
+        <v>42767</v>
+      </c>
+      <c r="B2">
+        <f>ROUNDDOWN(SUM(C2:E2)*0.7,-3)</f>
+        <v>169000</v>
+      </c>
+      <c r="C2">
+        <v>205200</v>
+      </c>
+      <c r="D2">
+        <v>21000</v>
+      </c>
+      <c r="E2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <f>预算表!A3</f>
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <f>预算表!A4</f>
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <f>预算表!A5</f>
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <f>预算表!A6</f>
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f>预算表!A7</f>
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <f>预算表!A8</f>
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <f>预算表!A9</f>
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <f>预算表!A10</f>
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <f>预算表!A11</f>
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <f>预算表!A12</f>
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <f>预算表!A13</f>
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <f>预算表!A14</f>
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <f>预算表!A15</f>
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <f>预算表!A16</f>
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <f>预算表!A17</f>
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <f>预算表!A18</f>
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <f>预算表!A19</f>
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <f>预算表!A20</f>
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <f>预算表!A21</f>
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <f>预算表!A22</f>
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <f>预算表!A23</f>
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <f>预算表!A24</f>
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <f>预算表!A25</f>
+        <v>43466</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="19" max="20" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9">
+        <v>42767</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="9">
+        <v>43100</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4">
+        <v>85900</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10">
+        <f>DATEDIF(C2,C3,"m") + 1</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6">
+        <f>C4-C7*(C5-1)</f>
+        <v>7900</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7">
+        <f>ROUNDDOWN(C4/C5,-2)</f>
+        <v>7800</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <f>预算表!A2</f>
+        <v>42767</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SUM(C10:X10)</f>
+        <v>78000</v>
+      </c>
+      <c r="C10">
+        <f>IF(($A10=C$2),C$4-C$6,IF(($A10&lt;=C$3),-C$7,0))</f>
+        <v>78000</v>
+      </c>
+      <c r="D10">
+        <f>IF(($A10=D$2),D$4-D$6,IF(($A10&lt;=D$3),-D$7,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <f>预算表!A3</f>
+        <v>42795</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" ref="B11:B33" si="0">SUM(C11:X11)</f>
+        <v>-7800</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D26" si="1">IF(($A11=C$2),C$4-C$6,IF(($A11&lt;=C$3),-C$7,0))</f>
+        <v>-7800</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <f>预算表!A4</f>
+        <v>42826</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <f>预算表!A5</f>
+        <v>42856</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <f>预算表!A6</f>
+        <v>42887</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <f>预算表!A7</f>
+        <v>42917</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <f>预算表!A8</f>
+        <v>42948</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <f>预算表!A9</f>
+        <v>42979</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <f>预算表!A10</f>
+        <v>43009</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <f>预算表!A11</f>
+        <v>43040</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <f>预算表!A12</f>
+        <v>43070</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
+        <v>-7800</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-7800</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <f>预算表!A13</f>
+        <v>43101</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C33" si="2">IF(($A21=C$2),C$6,IF(($A21&lt;=C$3),C$7,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <f>预算表!A14</f>
+        <v>43132</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <f>预算表!A15</f>
+        <v>43160</v>
+      </c>
+      <c r="B23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <f>预算表!A16</f>
+        <v>43191</v>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <f>预算表!A17</f>
+        <v>43221</v>
+      </c>
+      <c r="B25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <f>预算表!A18</f>
+        <v>43252</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <f>预算表!A19</f>
+        <v>43282</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D33" si="3">IF(($A27=D$2),D$4-D$6,IF(($A27&lt;=D$3),-D$7,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <f>预算表!A20</f>
+        <v>43313</v>
+      </c>
+      <c r="B28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <f>预算表!A21</f>
+        <v>43344</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <f>预算表!A22</f>
+        <v>43374</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <f>预算表!A23</f>
+        <v>43405</v>
+      </c>
+      <c r="B31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <f>预算表!A24</f>
+        <v>43435</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <f>预算表!A25</f>
+        <v>43466</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="13" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <f>预算表!A2</f>
+        <v>42767</v>
+      </c>
+      <c r="B2">
+        <f>SUM(C2:M2)</f>
+        <v>14540</v>
+      </c>
+      <c r="C2">
+        <v>14540</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <f>预算表!A3</f>
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <f>预算表!A4</f>
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <f>预算表!A5</f>
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <f>预算表!A6</f>
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <f>预算表!A7</f>
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <f>预算表!A8</f>
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <f>预算表!A9</f>
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <f>预算表!A10</f>
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <f>预算表!A11</f>
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <f>预算表!A12</f>
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <f>预算表!A13</f>
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <f>预算表!A14</f>
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <f>预算表!A15</f>
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <f>预算表!A16</f>
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <f>预算表!A17</f>
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <f>预算表!A18</f>
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <f>预算表!A19</f>
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <f>预算表!A20</f>
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <f>预算表!A21</f>
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <f>预算表!A22</f>
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <f>预算表!A23</f>
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <f>预算表!A24</f>
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <f>预算表!A25</f>
+        <v>43466</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>